--- a/doc/CS673_Manual Testing_Team2.xlsx
+++ b/doc/CS673_Manual Testing_Team2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="153">
   <si>
     <t>Test case ID, name</t>
   </si>
@@ -403,12 +403,309 @@
   <si>
     <t>http status ok</t>
   </si>
+  <si>
+    <t>{
+    "username" : "generic5",
+    "password_hash" : "Password5",
+    "email" : "generic5@solosavings.com",
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute RegisterUser POST Request on 
+localhost:8888/api/register</t>
+  </si>
+  <si>
+    <t>response body shows 
+"The user account with email generic5@solosavings.com ha successfully created"</t>
+  </si>
+  <si>
+    <t>Test feature with JWT security implementation</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute RegisterUserError POST Request on 
+localhost:8888/api/register</t>
+  </si>
+  <si>
+    <t>response body shows
+"The email generic5@solosavings.com already registered"</t>
+  </si>
+  <si>
+    <t>API Endpoint - login user but invalid credentials (POST request)</t>
+  </si>
+  <si>
+    <t>Register user successful</t>
+  </si>
+  <si>
+    <t>user exist in db, password incorrect</t>
+  </si>
+  <si>
+    <t>{
+    "username" : "generic5",
+    "password" : "Password4"
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute Login JWT Error POST Request on 
+localhost:8888/api/login</t>
+  </si>
+  <si>
+    <t>response body shows "Invalid email or password"</t>
+  </si>
+  <si>
+    <t>user exist in db, password correct</t>
+  </si>
+  <si>
+    <t>{
+    "username" : "generic5",
+    "password" : "Password5"
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute Login JWT POST Request on 
+localhost:8888/api/login</t>
+  </si>
+  <si>
+    <t>response body shows &lt;JWTToken&gt;</t>
+  </si>
+  <si>
+    <t>Login User successful</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token,No transactions created</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute GetTransactionCredit GET Request on localhost:8888/api/transaction/credit</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute GetTransactionDebit GET Request on localhost:8888/api/transaction/debit</t>
+  </si>
+  <si>
+    <t>API Endpoint - Get Transaction History</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute GetTransactionHistory GET Request on localhost:8888/api/transaction/history</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, User Balance = 0</t>
+  </si>
+  <si>
+    <t>{
+    "transaction_id": "",
+    "user_id":"",
+    "source": "Income 1",
+    "transaction_type": "CREDIT",
+    "amount": 100.00,
+    "transaction_date": ""
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute AddTransactionIncome Post Request to localhost:8888/api/transaction/add</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, User Balance = 100</t>
+  </si>
+  <si>
+    <t>{
+    "transaction_id": "",
+    "user_id":"",
+    "source": "Income 1",
+    "transaction_type": "CREDIT",
+    "amount": -100.00,
+    "transaction_date": ""
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute AddTransactionIncome AmountInvalid Error Post Request to localhost:8888/api/transaction/add</t>
+  </si>
+  <si>
+    <t>"Invalid transaction amount, please input correct transaction amount!" error message returned to user</t>
+  </si>
+  <si>
+    <t>{
+    "transaction_id": "",
+    "user_id":"",
+    "source": "Expense 1",
+    "transaction_type": "DEBIT",
+    "amount": 60.00,
+    "transaction_date": ""
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute AddTransactionExpense Post Request to localhost:8888/api/transaction/add</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, User Balance = 40</t>
+  </si>
+  <si>
+    <t>{
+    "transaction_id": "",
+    "user_id":"",
+    "source": "Expense 1",
+    "transaction_type": "DEBIT",
+    "amount": -100.00,
+    "transaction_date": ""
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute AddTransactionExpense Post Request AmountInvalid Error to localhost:8888/api/transaction/add</t>
+  </si>
+  <si>
+    <t>{
+    "transaction_id": "",
+    "user_id":"",
+    "source": "Expense 1",
+    "transaction_type": "DEBIT",
+    "amount": 1000.00,
+    "transaction_date": ""
+}</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute AddTransactionExpense ISF Error Post Request to localhost:8888/api/transaction/add</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token,Transaction Income was ran twice</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, Transaction Expense was ran twice</t>
+  </si>
+  <si>
+    <t>API Endpoint - Get Transactions History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Endpoint - Add Transaction Income and/or
+API Endpoint - Add Transaction Expense
+</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, Transaction Income was ran twice,Transaction Expense was ran twice</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "transaction_id": 1,
+        "user_id": 1,
+        "source": "Income 1",
+        "transaction_type": "CREDIT",
+        "amount": 100.0,
+        "transaction_date": "2023-09-25"
+    },
+    {
+        "transaction_id": 2,
+        "user_id": 1,
+        "source": "Income 1",
+        "transaction_type": "CREDIT",
+        "amount": 100.0,
+        "transaction_date": "2023-09-25"
+    }
+    {
+        "transaction_id": 3,
+        "user_id": 1,
+        "source": "Expense 1",
+        "transaction_type": "DEBIT",
+        "amount": 60.0,
+        "transaction_date": "2023-09-25"
+    },
+    {
+        "transaction_id": 4,
+        "user_id": 1,
+        "source": "Expense 1",
+        "transaction_type": "DEBIT",
+        "amount": 60.0,
+        "transaction_date": "2023-09-25"
+    }
+]</t>
+  </si>
+  <si>
+    <t>API Endpoint - Delete Transaction (Transaction does not exist)</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, Transaction Income was ran ,Transaction Expense was ran,</t>
+  </si>
+  <si>
+    <t>Invalid Transaction ID</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute DeleteTransaction Transaction Not Found DELETE Request on localhost:8888/api/transaction/delete/9000</t>
+  </si>
+  <si>
+    <t>Transaction not found!</t>
+  </si>
+  <si>
+    <t>API Endpoint - Delete Transaction (Transaction does not belong to logged in user)</t>
+  </si>
+  <si>
+    <t>Another User's Transaction ID</t>
+  </si>
+  <si>
+    <t>Login to Postman.
+Access solosavings collection in the cs673 workspace
+Execute DeleteTransaction Not User Transaction DELETE Request on localhost:8888/api/transaction/delete/20</t>
+  </si>
+  <si>
+    <t>Invalid Transaction Request</t>
+  </si>
+  <si>
+    <t>API Endpoint - Delete Transaction Credit</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, Transaction Income was ran ,Transaction Expense was ran, Income just covers expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Transaction ID </t>
+  </si>
+  <si>
+    <t>Income transaction required to cover expense. Can not delete this transaction. Please review!</t>
+  </si>
+  <si>
+    <t>API Endpoint - Delete Transaction Debit</t>
+  </si>
+  <si>
+    <t>User already exists, user logged in, user has JWT Token, Transaction Income was ran ,Transaction Expense was ran</t>
+  </si>
+  <si>
+    <t>Transaction Successfully Deleted. User Balance is 140.0</t>
+  </si>
+  <si>
+    <t>Transaction Successfully Deleted. User Balance is 40.0</t>
+  </si>
+  <si>
+    <t>{ "transaction_id": 3, "user_id": 1, "source": "Expense 1", "transaction_type": "DEBIT", "amount": 60.0, "transaction_date": "2023-09-25" }, { "transaction_id": 4, "user_id": 1, "source": "Expense 1", "transaction_type": "DEBIT", "amount": 60.0, "transaction_date": "2023-09-25" }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -428,8 +725,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +749,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -455,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -476,6 +789,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,48 +1886,76 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1617,20 +1970,48 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1645,20 +2026,48 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="A20" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -1673,20 +2082,48 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="A21" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1701,20 +2138,42 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="J22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1729,20 +2188,42 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="J23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1757,20 +2238,42 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="J24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -1785,20 +2288,46 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="A25" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -1813,20 +2342,46 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="A26" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -1841,20 +2396,46 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="A27" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -1869,20 +2450,46 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="A28" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -1897,20 +2504,46 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="A29" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -1925,20 +2558,42 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -1953,20 +2608,42 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="J31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -1981,20 +2658,42 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="A32" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="J32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="N32" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -2009,20 +2708,44 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="A33" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -2037,20 +2760,44 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="A34" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -2065,20 +2812,44 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="A35" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -2093,20 +2864,44 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="A36" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -2121,20 +2916,44 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="A37" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -2149,20 +2968,22 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -2177,20 +2998,46 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="H39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -2205,20 +3052,46 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="H40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -2233,20 +3106,46 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="A41" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="H41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -2259,90 +3158,6 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
@@ -29168,6 +29983,342 @@
       <c r="Y1002" s="5"/>
       <c r="Z1002" s="5"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="5"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="5"/>
+      <c r="G1003" s="5"/>
+      <c r="H1003" s="5"/>
+      <c r="I1003" s="5"/>
+      <c r="J1003" s="5"/>
+      <c r="K1003" s="5"/>
+      <c r="L1003" s="5"/>
+      <c r="M1003" s="5"/>
+      <c r="N1003" s="5"/>
+      <c r="O1003" s="5"/>
+      <c r="P1003" s="5"/>
+      <c r="Q1003" s="5"/>
+      <c r="R1003" s="5"/>
+      <c r="S1003" s="5"/>
+      <c r="T1003" s="5"/>
+      <c r="U1003" s="5"/>
+      <c r="V1003" s="5"/>
+      <c r="W1003" s="5"/>
+      <c r="X1003" s="5"/>
+      <c r="Y1003" s="5"/>
+      <c r="Z1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="5"/>
+      <c r="B1004" s="5"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+      <c r="F1004" s="5"/>
+      <c r="G1004" s="5"/>
+      <c r="H1004" s="5"/>
+      <c r="I1004" s="5"/>
+      <c r="J1004" s="5"/>
+      <c r="K1004" s="5"/>
+      <c r="L1004" s="5"/>
+      <c r="M1004" s="5"/>
+      <c r="N1004" s="5"/>
+      <c r="O1004" s="5"/>
+      <c r="P1004" s="5"/>
+      <c r="Q1004" s="5"/>
+      <c r="R1004" s="5"/>
+      <c r="S1004" s="5"/>
+      <c r="T1004" s="5"/>
+      <c r="U1004" s="5"/>
+      <c r="V1004" s="5"/>
+      <c r="W1004" s="5"/>
+      <c r="X1004" s="5"/>
+      <c r="Y1004" s="5"/>
+      <c r="Z1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="5"/>
+      <c r="B1005" s="5"/>
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+      <c r="F1005" s="5"/>
+      <c r="G1005" s="5"/>
+      <c r="H1005" s="5"/>
+      <c r="I1005" s="5"/>
+      <c r="J1005" s="5"/>
+      <c r="K1005" s="5"/>
+      <c r="L1005" s="5"/>
+      <c r="M1005" s="5"/>
+      <c r="N1005" s="5"/>
+      <c r="O1005" s="5"/>
+      <c r="P1005" s="5"/>
+      <c r="Q1005" s="5"/>
+      <c r="R1005" s="5"/>
+      <c r="S1005" s="5"/>
+      <c r="T1005" s="5"/>
+      <c r="U1005" s="5"/>
+      <c r="V1005" s="5"/>
+      <c r="W1005" s="5"/>
+      <c r="X1005" s="5"/>
+      <c r="Y1005" s="5"/>
+      <c r="Z1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="5"/>
+      <c r="B1006" s="5"/>
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="5"/>
+      <c r="E1006" s="5"/>
+      <c r="F1006" s="5"/>
+      <c r="G1006" s="5"/>
+      <c r="H1006" s="5"/>
+      <c r="I1006" s="5"/>
+      <c r="J1006" s="5"/>
+      <c r="K1006" s="5"/>
+      <c r="L1006" s="5"/>
+      <c r="M1006" s="5"/>
+      <c r="N1006" s="5"/>
+      <c r="O1006" s="5"/>
+      <c r="P1006" s="5"/>
+      <c r="Q1006" s="5"/>
+      <c r="R1006" s="5"/>
+      <c r="S1006" s="5"/>
+      <c r="T1006" s="5"/>
+      <c r="U1006" s="5"/>
+      <c r="V1006" s="5"/>
+      <c r="W1006" s="5"/>
+      <c r="X1006" s="5"/>
+      <c r="Y1006" s="5"/>
+      <c r="Z1006" s="5"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="5"/>
+      <c r="B1007" s="5"/>
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="5"/>
+      <c r="E1007" s="5"/>
+      <c r="F1007" s="5"/>
+      <c r="G1007" s="5"/>
+      <c r="H1007" s="5"/>
+      <c r="I1007" s="5"/>
+      <c r="J1007" s="5"/>
+      <c r="K1007" s="5"/>
+      <c r="L1007" s="5"/>
+      <c r="M1007" s="5"/>
+      <c r="N1007" s="5"/>
+      <c r="O1007" s="5"/>
+      <c r="P1007" s="5"/>
+      <c r="Q1007" s="5"/>
+      <c r="R1007" s="5"/>
+      <c r="S1007" s="5"/>
+      <c r="T1007" s="5"/>
+      <c r="U1007" s="5"/>
+      <c r="V1007" s="5"/>
+      <c r="W1007" s="5"/>
+      <c r="X1007" s="5"/>
+      <c r="Y1007" s="5"/>
+      <c r="Z1007" s="5"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="5"/>
+      <c r="B1008" s="5"/>
+      <c r="C1008" s="5"/>
+      <c r="D1008" s="5"/>
+      <c r="E1008" s="5"/>
+      <c r="F1008" s="5"/>
+      <c r="G1008" s="5"/>
+      <c r="H1008" s="5"/>
+      <c r="I1008" s="5"/>
+      <c r="J1008" s="5"/>
+      <c r="K1008" s="5"/>
+      <c r="L1008" s="5"/>
+      <c r="M1008" s="5"/>
+      <c r="N1008" s="5"/>
+      <c r="O1008" s="5"/>
+      <c r="P1008" s="5"/>
+      <c r="Q1008" s="5"/>
+      <c r="R1008" s="5"/>
+      <c r="S1008" s="5"/>
+      <c r="T1008" s="5"/>
+      <c r="U1008" s="5"/>
+      <c r="V1008" s="5"/>
+      <c r="W1008" s="5"/>
+      <c r="X1008" s="5"/>
+      <c r="Y1008" s="5"/>
+      <c r="Z1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="5"/>
+      <c r="B1009" s="5"/>
+      <c r="C1009" s="5"/>
+      <c r="D1009" s="5"/>
+      <c r="E1009" s="5"/>
+      <c r="F1009" s="5"/>
+      <c r="G1009" s="5"/>
+      <c r="H1009" s="5"/>
+      <c r="I1009" s="5"/>
+      <c r="J1009" s="5"/>
+      <c r="K1009" s="5"/>
+      <c r="L1009" s="5"/>
+      <c r="M1009" s="5"/>
+      <c r="N1009" s="5"/>
+      <c r="O1009" s="5"/>
+      <c r="P1009" s="5"/>
+      <c r="Q1009" s="5"/>
+      <c r="R1009" s="5"/>
+      <c r="S1009" s="5"/>
+      <c r="T1009" s="5"/>
+      <c r="U1009" s="5"/>
+      <c r="V1009" s="5"/>
+      <c r="W1009" s="5"/>
+      <c r="X1009" s="5"/>
+      <c r="Y1009" s="5"/>
+      <c r="Z1009" s="5"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="5"/>
+      <c r="B1010" s="5"/>
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="5"/>
+      <c r="E1010" s="5"/>
+      <c r="F1010" s="5"/>
+      <c r="G1010" s="5"/>
+      <c r="H1010" s="5"/>
+      <c r="I1010" s="5"/>
+      <c r="J1010" s="5"/>
+      <c r="K1010" s="5"/>
+      <c r="L1010" s="5"/>
+      <c r="M1010" s="5"/>
+      <c r="N1010" s="5"/>
+      <c r="O1010" s="5"/>
+      <c r="P1010" s="5"/>
+      <c r="Q1010" s="5"/>
+      <c r="R1010" s="5"/>
+      <c r="S1010" s="5"/>
+      <c r="T1010" s="5"/>
+      <c r="U1010" s="5"/>
+      <c r="V1010" s="5"/>
+      <c r="W1010" s="5"/>
+      <c r="X1010" s="5"/>
+      <c r="Y1010" s="5"/>
+      <c r="Z1010" s="5"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="5"/>
+      <c r="B1011" s="5"/>
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="5"/>
+      <c r="E1011" s="5"/>
+      <c r="F1011" s="5"/>
+      <c r="G1011" s="5"/>
+      <c r="H1011" s="5"/>
+      <c r="I1011" s="5"/>
+      <c r="J1011" s="5"/>
+      <c r="K1011" s="5"/>
+      <c r="L1011" s="5"/>
+      <c r="M1011" s="5"/>
+      <c r="N1011" s="5"/>
+      <c r="O1011" s="5"/>
+      <c r="P1011" s="5"/>
+      <c r="Q1011" s="5"/>
+      <c r="R1011" s="5"/>
+      <c r="S1011" s="5"/>
+      <c r="T1011" s="5"/>
+      <c r="U1011" s="5"/>
+      <c r="V1011" s="5"/>
+      <c r="W1011" s="5"/>
+      <c r="X1011" s="5"/>
+      <c r="Y1011" s="5"/>
+      <c r="Z1011" s="5"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="5"/>
+      <c r="B1012" s="5"/>
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="5"/>
+      <c r="E1012" s="5"/>
+      <c r="F1012" s="5"/>
+      <c r="G1012" s="5"/>
+      <c r="H1012" s="5"/>
+      <c r="I1012" s="5"/>
+      <c r="J1012" s="5"/>
+      <c r="K1012" s="5"/>
+      <c r="L1012" s="5"/>
+      <c r="M1012" s="5"/>
+      <c r="N1012" s="5"/>
+      <c r="O1012" s="5"/>
+      <c r="P1012" s="5"/>
+      <c r="Q1012" s="5"/>
+      <c r="R1012" s="5"/>
+      <c r="S1012" s="5"/>
+      <c r="T1012" s="5"/>
+      <c r="U1012" s="5"/>
+      <c r="V1012" s="5"/>
+      <c r="W1012" s="5"/>
+      <c r="X1012" s="5"/>
+      <c r="Y1012" s="5"/>
+      <c r="Z1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="5"/>
+      <c r="B1013" s="5"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
+      <c r="E1013" s="5"/>
+      <c r="F1013" s="5"/>
+      <c r="G1013" s="5"/>
+      <c r="H1013" s="5"/>
+      <c r="I1013" s="5"/>
+      <c r="J1013" s="5"/>
+      <c r="K1013" s="5"/>
+      <c r="L1013" s="5"/>
+      <c r="M1013" s="5"/>
+      <c r="N1013" s="5"/>
+      <c r="O1013" s="5"/>
+      <c r="P1013" s="5"/>
+      <c r="Q1013" s="5"/>
+      <c r="R1013" s="5"/>
+      <c r="S1013" s="5"/>
+      <c r="T1013" s="5"/>
+      <c r="U1013" s="5"/>
+      <c r="V1013" s="5"/>
+      <c r="W1013" s="5"/>
+      <c r="X1013" s="5"/>
+      <c r="Y1013" s="5"/>
+      <c r="Z1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="5"/>
+      <c r="B1014" s="5"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+      <c r="E1014" s="5"/>
+      <c r="F1014" s="5"/>
+      <c r="G1014" s="5"/>
+      <c r="H1014" s="5"/>
+      <c r="I1014" s="5"/>
+      <c r="J1014" s="5"/>
+      <c r="K1014" s="5"/>
+      <c r="L1014" s="5"/>
+      <c r="M1014" s="5"/>
+      <c r="N1014" s="5"/>
+      <c r="O1014" s="5"/>
+      <c r="P1014" s="5"/>
+      <c r="Q1014" s="5"/>
+      <c r="R1014" s="5"/>
+      <c r="S1014" s="5"/>
+      <c r="T1014" s="5"/>
+      <c r="U1014" s="5"/>
+      <c r="V1014" s="5"/>
+      <c r="W1014" s="5"/>
+      <c r="X1014" s="5"/>
+      <c r="Y1014" s="5"/>
+      <c r="Z1014" s="5"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
